--- a/final_exp/sms_moneat/results_sms_moneat_final6_full_fs_val.xlsx
+++ b/final_exp/sms_moneat/results_sms_moneat_final6_full_fs_val.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata-my.sharepoint.com/personal/daniel_garcia_teradata_com/Documents/Documents/Personal/Code/NEAT_Microarray/final_exp/sms_emoa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata-my.sharepoint.com/personal/daniel_garcia_teradata_com/Documents/Documents/Personal/Code/NEAT_Microarray/final_exp/sms_moneat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E630CF9-1108-40B3-918F-836F51A1DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8E630CF9-1108-40B3-918F-836F51A1DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A47AD33-A100-44FE-BB66-34CFEB0D16B2}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{DCA6A5A5-28F6-47E6-8CDB-3ABC9A76C1A1}"/>
   </bookViews>
@@ -451,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8EFC53-BEF3-40EA-99E3-68299944BB0F}">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -554,7 +554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -648,8 +648,12 @@
       <c r="AE2">
         <v>1</v>
       </c>
+      <c r="AF2">
+        <f>AVERAGE(B2:AE2)</f>
+        <v>2.5333333333333332</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -743,8 +747,12 @@
       <c r="AE3">
         <v>3</v>
       </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF22" si="0">AVERAGE(B3:AE3)</f>
+        <v>2.0333333333333332</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -761,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -838,8 +846,12 @@
       <c r="AE4">
         <v>3</v>
       </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -856,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -933,8 +945,12 @@
       <c r="AE5">
         <v>2</v>
       </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -951,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1028,8 +1044,12 @@
       <c r="AE6">
         <v>2</v>
       </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1123,8 +1143,12 @@
       <c r="AE7">
         <v>1</v>
       </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333335</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1218,8 +1242,12 @@
       <c r="AE8">
         <v>2</v>
       </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1313,8 +1341,12 @@
       <c r="AE9">
         <v>4</v>
       </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1408,8 +1440,12 @@
       <c r="AE10">
         <v>5</v>
       </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>3.0666666666666669</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1503,8 +1539,12 @@
       <c r="AE11">
         <v>4</v>
       </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1598,8 +1638,12 @@
       <c r="AE12">
         <v>2</v>
       </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1693,8 +1737,12 @@
       <c r="AE13">
         <v>3</v>
       </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1788,8 +1836,12 @@
       <c r="AE14">
         <v>3</v>
       </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>2.9333333333333331</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1883,8 +1935,12 @@
       <c r="AE15">
         <v>2</v>
       </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1978,8 +2034,12 @@
       <c r="AE16">
         <v>3</v>
       </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2073,8 +2133,12 @@
       <c r="AE17">
         <v>6</v>
       </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2168,8 +2232,12 @@
       <c r="AE18">
         <v>2</v>
       </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>3.4333333333333331</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2186,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2263,8 +2331,12 @@
       <c r="AE19">
         <v>5</v>
       </c>
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2358,8 +2430,12 @@
       <c r="AE20">
         <v>5</v>
       </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666665</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2453,8 +2529,12 @@
       <c r="AE21">
         <v>2</v>
       </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>2.5333333333333332</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2547,6 +2627,10 @@
       </c>
       <c r="AE22">
         <v>2</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>2.7333333333333334</v>
       </c>
     </row>
   </sheetData>
